--- a/회의내용/인턴기업정리.xlsx
+++ b/회의내용/인턴기업정리.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjhjh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sopar\SpringProject(ParkerBox)\회의내용\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB623C5-1AB1-468C-9B5E-19753B62E57C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D622D5BD-652E-4CCB-9B3D-DD24314DB8DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="945" windowWidth="20595" windowHeight="15255" xr2:uid="{EED503A2-A8B4-4C28-8388-D44F1A7873C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EED503A2-A8B4-4C28-8388-D44F1A7873C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1128,30 +1128,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86641F7D-7975-4654-A3E4-243B84A064D8}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L8" sqref="E8:L8"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="45.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.09765625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="45.19921875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.59765625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" customWidth="1"/>
     <col min="9" max="9" width="19.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.125" customWidth="1"/>
-    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.09765625" customWidth="1"/>
+    <col min="12" max="12" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.8984375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.09765625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>92</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>91</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>90</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>82</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>89</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="66" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="66" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>76</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>81</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="81" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="93.6" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>118</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>133</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="66" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="91.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>144</v>
       </c>
@@ -1817,13 +1817,13 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="J16" s="2"/>
     </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:12" x14ac:dyDescent="0.4">
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:12" x14ac:dyDescent="0.4">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
